--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227849.7214394365</v>
+        <v>217922.4398565895</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26269435.28939334</v>
+        <v>26211623.37235174</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14820302.03168619</v>
+        <v>14762490.11464459</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3513826.876644821</v>
+        <v>3551747.52021874</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.68867339138413</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.26683315033898</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.26683315033898</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.68867339138386</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="C3" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>27.53982663881844</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31.26683315033898</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.473610219015848</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.51103305293353</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.555183366869178</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.26683315033898</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>31.26683315033883</v>
       </c>
     </row>
     <row r="4">
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="J5" t="n">
-        <v>10.09069110280002</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>37.52930446208646</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>33.05581137020575</v>
+      </c>
+      <c r="W5" t="n">
         <v>37.52930446208646</v>
-      </c>
-      <c r="U5" t="n">
-        <v>22.96512026740574</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -989,61 +989,61 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>37.52930446208646</v>
       </c>
-      <c r="H6" t="n">
-        <v>27.76475370405759</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.58206201150024</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13.70815661144291</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5.808809210202178</v>
-      </c>
-      <c r="R6" t="n">
-        <v>34.25063875717578</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>33.05581137020575</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
     </row>
     <row r="7">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.530866342333198</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.322714328675332</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>38.61802642167716</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>45.40562735059407</v>
       </c>
       <c r="T8" t="n">
-        <v>32.92729682831164</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>39.99327657040322</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>39.99327657040322</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.26100167352979</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1256,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.748906304207694</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>33.24871511996928</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>42.14028082329055</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.468277882965447</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.468277882965447</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>59.22911908072491</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="E11" t="n">
-        <v>161.4836453793819</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380179</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.70128436951479</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>129.3933086328304</v>
       </c>
       <c r="X12" t="n">
-        <v>123.078729894509</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>87.43605896434157</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.43258009724633</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.352495282391892</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>191.22113434398</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>193.3854158231837</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>193.3854158231839</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1697,7 +1697,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>102.6274657187718</v>
       </c>
       <c r="Y15" t="n">
-        <v>76.33837735892102</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.26673587051639</v>
       </c>
       <c r="G16" t="n">
-        <v>48.6531349655906</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H16" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1849,64 +1849,64 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>219.5565574740962</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219.5565574740962</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>193.3854158231838</v>
       </c>
-      <c r="E17" t="n">
-        <v>219.5565574740961</v>
-      </c>
-      <c r="F17" t="n">
-        <v>219.5565574740961</v>
-      </c>
-      <c r="G17" t="n">
-        <v>219.5565574740961</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>109.7879211854458</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
         <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>36.0299284861958</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.26673587051639</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>191.2211343439798</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>193.3854158231837</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>91.13088952452659</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.0258864527636</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>7.973054947094386</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>33.32143611366081</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>28.23631971346515</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>191.8024358057405</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>305.6392777176364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>13.26230153156676</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
         <v>115.7281862028015</v>
@@ -2408,13 +2408,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H24" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -2462,10 +2462,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>13.76770915411389</v>
       </c>
     </row>
     <row r="25">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>55.51465019623033</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>255.7849588823068</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>126.0182441931089</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T26" t="n">
-        <v>201.2844398208476</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
-        <v>152.9662577680471</v>
+        <v>47.89293007843963</v>
       </c>
       <c r="U27" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.6805149669376</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>55.51465019623038</v>
       </c>
       <c r="D28" t="n">
-        <v>127.3898190822009</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>247.9077340986888</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
-        <v>285.0899515417858</v>
+        <v>25.13051689104736</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>58.87357629831929</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.4103668586446019</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>195.2992474636072</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>99.97076704113891</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.8300896984042</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>222.2411574623776</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.1884801238108</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -3119,10 +3119,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>46.32408027422884</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.279968908505448</v>
       </c>
       <c r="T33" t="n">
         <v>152.9662577680471</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>44.03190971264864</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>264.5539824275544</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>46.77787967814037</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>180.7124886256784</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>20.02248132027972</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
-        <v>54.04893327214948</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>10.63812213477854</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>259.4219021912133</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26.04557101858866</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.389683084581099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,19 +3584,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>17.33730119438645</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T39" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U39" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>98.38986735189253</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>99.97076704113891</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.66461727990606</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
-        <v>205.0719428126216</v>
+        <v>190.1944926407861</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,19 +3824,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>5.816446661651565</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>0.4103668586446019</v>
       </c>
       <c r="T42" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>36.93356056609042</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>22.88166847950842</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>285.0899515417858</v>
+        <v>260.9686054838267</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>329.7007527544145</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,13 +4067,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>36.94941565602193</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>76.53833695922896</v>
       </c>
       <c r="U45" t="n">
         <v>195.2992474636072</v>
@@ -4124,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>42.06564080243151</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>42.06564080243152</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.501346652027119</v>
+        <v>74.60722498345361</v>
       </c>
       <c r="C2" t="n">
-        <v>2.501346652027119</v>
+        <v>74.60722498345361</v>
       </c>
       <c r="D2" t="n">
-        <v>2.501346652027119</v>
+        <v>74.60722498345361</v>
       </c>
       <c r="E2" t="n">
-        <v>2.501346652027119</v>
+        <v>43.02456523563661</v>
       </c>
       <c r="F2" t="n">
-        <v>2.501346652027119</v>
+        <v>43.02456523563661</v>
       </c>
       <c r="G2" t="n">
-        <v>2.501346652027119</v>
+        <v>11.44190548781961</v>
       </c>
       <c r="H2" t="n">
-        <v>2.501346652027119</v>
+        <v>11.44190548781961</v>
       </c>
       <c r="I2" t="n">
-        <v>2.501346652027119</v>
+        <v>11.44190548781961</v>
       </c>
       <c r="J2" t="n">
-        <v>2.501346652027119</v>
+        <v>11.44190548781961</v>
       </c>
       <c r="K2" t="n">
-        <v>3.586988368706404</v>
+        <v>12.5275472044988</v>
       </c>
       <c r="L2" t="n">
-        <v>19.87903646971981</v>
+        <v>28.8195953055121</v>
       </c>
       <c r="M2" t="n">
-        <v>50.83320128855541</v>
+        <v>59.77376012434753</v>
       </c>
       <c r="N2" t="n">
-        <v>81.78736610739099</v>
+        <v>90.72792494318297</v>
       </c>
       <c r="O2" t="n">
-        <v>107.8531422385447</v>
+        <v>116.7937010743366</v>
       </c>
       <c r="P2" t="n">
-        <v>116.1267737655636</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.1267737655636</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="R2" t="n">
-        <v>97.24932589547859</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="S2" t="n">
-        <v>65.66666614766143</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="T2" t="n">
-        <v>34.08400639984428</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="U2" t="n">
-        <v>2.501346652027119</v>
+        <v>93.48467285353831</v>
       </c>
       <c r="V2" t="n">
-        <v>2.501346652027119</v>
+        <v>93.48467285353831</v>
       </c>
       <c r="W2" t="n">
-        <v>2.501346652027119</v>
+        <v>93.48467285353831</v>
       </c>
       <c r="X2" t="n">
-        <v>2.501346652027119</v>
+        <v>74.60722498345361</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.501346652027119</v>
+        <v>74.60722498345361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.88347753346889</v>
+        <v>61.90201310572132</v>
       </c>
       <c r="C3" t="n">
-        <v>57.30081778565173</v>
+        <v>30.31935335790432</v>
       </c>
       <c r="D3" t="n">
-        <v>57.30081778565173</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="E3" t="n">
-        <v>57.30081778565173</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="F3" t="n">
-        <v>57.30081778565173</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="G3" t="n">
-        <v>57.30081778565173</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="H3" t="n">
-        <v>25.71815803783457</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="I3" t="n">
-        <v>18.16905680650543</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="J3" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="K3" t="n">
-        <v>6.173848733120984</v>
+        <v>7.908332877647154</v>
       </c>
       <c r="L3" t="n">
-        <v>32.20483814484915</v>
+        <v>33.93932228937523</v>
       </c>
       <c r="M3" t="n">
-        <v>63.15900296368474</v>
+        <v>64.89348710821068</v>
       </c>
       <c r="N3" t="n">
-        <v>94.11316778252034</v>
+        <v>95.84765192704612</v>
       </c>
       <c r="O3" t="n">
-        <v>125.0673326013559</v>
+        <v>107.0336346960501</v>
       </c>
       <c r="P3" t="n">
-        <v>125.0673326013559</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.4661372812861</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="R3" t="n">
-        <v>88.88347753346889</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="S3" t="n">
-        <v>88.88347753346889</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="T3" t="n">
-        <v>88.88347753346889</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="U3" t="n">
-        <v>88.88347753346889</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="V3" t="n">
-        <v>88.88347753346889</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="W3" t="n">
-        <v>88.88347753346889</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="X3" t="n">
-        <v>88.88347753346889</v>
+        <v>125.0673326013553</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.88347753346889</v>
+        <v>93.48467285353831</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="D4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="E4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="F4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="G4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="H4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="I4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="J4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="K4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="L4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="M4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="N4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="O4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="P4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="R4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="S4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="T4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="U4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="V4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="W4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="X4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.501346652027119</v>
+        <v>2.501346652027106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="D5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="E5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="F5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="G5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="H5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="I5" t="n">
-        <v>13.1949616325225</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J5" t="n">
         <v>3.002344356966917</v>
@@ -4573,10 +4573,10 @@
         <v>8.579347327526918</v>
       </c>
       <c r="L5" t="n">
-        <v>30.44332621730853</v>
+        <v>30.4433262173086</v>
       </c>
       <c r="M5" t="n">
-        <v>67.59733763477414</v>
+        <v>67.59733763477419</v>
       </c>
       <c r="N5" t="n">
         <v>104.7513490522398</v>
@@ -4591,28 +4591,28 @@
         <v>150.1172178483459</v>
       </c>
       <c r="R5" t="n">
+        <v>150.1172178483459</v>
+      </c>
+      <c r="S5" t="n">
         <v>112.208829502804</v>
       </c>
-      <c r="S5" t="n">
-        <v>74.3004411572621</v>
-      </c>
       <c r="T5" t="n">
-        <v>36.39205281172021</v>
+        <v>112.208829502804</v>
       </c>
       <c r="U5" t="n">
-        <v>13.1949616325225</v>
+        <v>112.208829502804</v>
       </c>
       <c r="V5" t="n">
-        <v>13.1949616325225</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="W5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="X5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.1949616325225</v>
+        <v>40.9107327025088</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.6531289924085</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="C6" t="n">
-        <v>109.6531289924085</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="D6" t="n">
-        <v>109.6531289924085</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="E6" t="n">
-        <v>109.6531289924085</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="F6" t="n">
-        <v>109.6531289924085</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="G6" t="n">
-        <v>71.74474064686666</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H6" t="n">
-        <v>43.69953488519233</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.84896719680824</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J6" t="n">
         <v>3.002344356966917</v>
@@ -4667,31 +4667,31 @@
         <v>150.1172178483459</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.2497337976366</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="R6" t="n">
-        <v>109.6531289924085</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="S6" t="n">
-        <v>109.6531289924085</v>
+        <v>112.208829502804</v>
       </c>
       <c r="T6" t="n">
-        <v>109.6531289924085</v>
+        <v>112.208829502804</v>
       </c>
       <c r="U6" t="n">
-        <v>109.6531289924085</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="V6" t="n">
-        <v>109.6531289924085</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="W6" t="n">
-        <v>109.6531289924085</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="X6" t="n">
-        <v>109.6531289924085</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.6531289924085</v>
+        <v>3.002344356966917</v>
       </c>
     </row>
     <row r="7">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.10365593847911</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="C8" t="n">
-        <v>57.10365593847911</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="D8" t="n">
-        <v>57.10365593847911</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="E8" t="n">
-        <v>57.10365593847911</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="F8" t="n">
-        <v>57.10365593847911</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="G8" t="n">
-        <v>57.10365593847911</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H8" t="n">
-        <v>57.10365593847911</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I8" t="n">
-        <v>11.23938588737399</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="J8" t="n">
         <v>3.632450188047526</v>
       </c>
       <c r="K8" t="n">
-        <v>13.00760177093454</v>
+        <v>13.00760177093458</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58351986958228</v>
+        <v>39.58351986958232</v>
       </c>
       <c r="M8" t="n">
-        <v>81.9804715503992</v>
+        <v>81.98047155039913</v>
       </c>
       <c r="N8" t="n">
-        <v>126.9320426274873</v>
+        <v>126.9320426274872</v>
       </c>
       <c r="O8" t="n">
         <v>163.9777557138802</v>
@@ -4825,31 +4825,31 @@
         <v>181.6225094023763</v>
       </c>
       <c r="Q8" t="n">
-        <v>175.2359292724012</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="R8" t="n">
-        <v>136.2278217757576</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="S8" t="n">
-        <v>90.36355172465248</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="T8" t="n">
-        <v>57.10365593847911</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="U8" t="n">
-        <v>57.10365593847911</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="V8" t="n">
-        <v>57.10365593847911</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="W8" t="n">
-        <v>57.10365593847911</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="X8" t="n">
-        <v>57.10365593847911</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.10365593847911</v>
+        <v>49.49672023915265</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.956694302724081</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="C9" t="n">
-        <v>9.956694302724081</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="D9" t="n">
-        <v>9.956694302724081</v>
+        <v>95.36099029025777</v>
       </c>
       <c r="E9" t="n">
-        <v>9.956694302724081</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="F9" t="n">
-        <v>9.956694302724081</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="G9" t="n">
-        <v>9.956694302724081</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H9" t="n">
-        <v>9.956694302724081</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I9" t="n">
         <v>3.632450188047526</v>
@@ -4904,31 +4904,31 @@
         <v>181.6225094023763</v>
       </c>
       <c r="Q9" t="n">
-        <v>177.835735357722</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="R9" t="n">
-        <v>144.2511746304803</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="S9" t="n">
-        <v>98.38690457937521</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="T9" t="n">
-        <v>52.52263452827009</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="U9" t="n">
-        <v>9.956694302724081</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="V9" t="n">
-        <v>9.956694302724081</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="W9" t="n">
-        <v>9.956694302724081</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="X9" t="n">
-        <v>9.956694302724081</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.956694302724081</v>
+        <v>181.6225094023763</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="C10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="D10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="E10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="F10" t="n">
         <v>3.632450188047526</v>
@@ -4977,37 +4977,37 @@
         <v>5.115559160739896</v>
       </c>
       <c r="O10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="P10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="R10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="S10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="T10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="U10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="V10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="W10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="X10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.632450188047526</v>
+        <v>5.115559160739896</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>878.2262298963846</v>
+        <v>331.3902286369407</v>
       </c>
       <c r="C11" t="n">
-        <v>878.2262298963846</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2262298963846</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="E11" t="n">
-        <v>715.1114365838775</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="F11" t="n">
-        <v>493.3371361049925</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="G11" t="n">
-        <v>271.5628356261075</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="H11" t="n">
-        <v>49.78853514722243</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="I11" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422717</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474252</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L11" t="n">
         <v>271.1830965723307</v>
@@ -5053,40 +5053,40 @@
         <v>420.4501281543857</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547427</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598412</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="V11" t="n">
-        <v>878.2262298963846</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="W11" t="n">
-        <v>878.2262298963846</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2262298963846</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="Y11" t="n">
-        <v>878.2262298963846</v>
+        <v>331.3902286369407</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>431.598045145499</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="C12" t="n">
-        <v>431.598045145499</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="D12" t="n">
-        <v>431.598045145499</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="E12" t="n">
-        <v>311.105229137827</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F12" t="n">
-        <v>202.1453493203315</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G12" t="n">
-        <v>95.90644344583291</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H12" t="n">
-        <v>32.41430678935677</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I12" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J12" t="n">
-        <v>36.26919386777739</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K12" t="n">
-        <v>99.89115689943301</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L12" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M12" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N12" t="n">
-        <v>472.5885816837999</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O12" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P12" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q12" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R12" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S12" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T12" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U12" t="n">
-        <v>715.3219541700619</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V12" t="n">
-        <v>715.3219541700619</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="W12" t="n">
-        <v>715.3219541700619</v>
+        <v>387.3202530586818</v>
       </c>
       <c r="X12" t="n">
-        <v>591.000004781669</v>
+        <v>387.3202530586818</v>
       </c>
       <c r="Y12" t="n">
-        <v>431.598045145499</v>
+        <v>387.3202530586818</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H13" t="n">
-        <v>122.3979340723097</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I13" t="n">
-        <v>24.99128750943465</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J13" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K13" t="n">
-        <v>37.55032788682517</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L13" t="n">
-        <v>75.23712329476713</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M13" t="n">
-        <v>116.2921695945569</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N13" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O13" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U13" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="V13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="W13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="X13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.7171855514426</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="C14" t="n">
-        <v>878.2262298963846</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="D14" t="n">
-        <v>878.2262298963846</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="E14" t="n">
-        <v>656.4519294174995</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F14" t="n">
-        <v>434.6776289386145</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G14" t="n">
-        <v>212.9033284597295</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H14" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I14" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J14" t="n">
         <v>61.76566646422691</v>
@@ -5284,46 +5284,46 @@
         <v>148.5608200474251</v>
       </c>
       <c r="L14" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O14" t="n">
-        <v>713.5940480809662</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P14" t="n">
         <v>818.7605380598411</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="U14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="V14" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="W14" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="X14" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="Y14" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>497.909449454757</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="C15" t="n">
-        <v>363.9143782037027</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="D15" t="n">
-        <v>247.0172204230951</v>
+        <v>138.0573406055997</v>
       </c>
       <c r="E15" t="n">
-        <v>126.5244044154231</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J15" t="n">
-        <v>36.26919386777739</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K15" t="n">
-        <v>99.89115689943301</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L15" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M15" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N15" t="n">
-        <v>472.5885816837999</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O15" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P15" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U15" t="n">
-        <v>715.3219541700619</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V15" t="n">
-        <v>715.3219541700619</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="W15" t="n">
-        <v>715.3219541700619</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="X15" t="n">
-        <v>715.3219541700619</v>
+        <v>414.3564580223772</v>
       </c>
       <c r="Y15" t="n">
-        <v>638.2124820903437</v>
+        <v>254.9544983862073</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="C16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="D16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="E16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="F16" t="n">
-        <v>210.7171855514426</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G16" t="n">
-        <v>161.5726047781188</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K16" t="n">
-        <v>37.55032788682517</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L16" t="n">
-        <v>75.23712329476713</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M16" t="n">
-        <v>116.2921695945569</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N16" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O16" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="V16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="W16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="X16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="C17" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="D17" t="n">
-        <v>682.8874260345827</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="E17" t="n">
-        <v>461.1131255556977</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="F17" t="n">
         <v>239.3388250768127</v>
@@ -5515,22 +5515,22 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422707</v>
       </c>
       <c r="K17" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474252</v>
       </c>
       <c r="L17" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M17" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547427</v>
       </c>
       <c r="O17" t="n">
-        <v>713.5940480809662</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P17" t="n">
         <v>818.7605380598412</v>
@@ -5539,28 +5539,28 @@
         <v>878.2262298963847</v>
       </c>
       <c r="R17" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="S17" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="T17" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="U17" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="V17" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="W17" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="X17" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="Y17" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>128.4614146842366</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C18" t="n">
-        <v>128.4614146842366</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D18" t="n">
-        <v>128.4614146842366</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E18" t="n">
         <v>17.56452459792769</v>
@@ -5594,52 +5594,52 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J18" t="n">
-        <v>36.26919386777739</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K18" t="n">
-        <v>99.89115689943301</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L18" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M18" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N18" t="n">
-        <v>472.5885816837999</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O18" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P18" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q18" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R18" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S18" t="n">
-        <v>715.3219541700619</v>
+        <v>621.2852813250461</v>
       </c>
       <c r="T18" t="n">
-        <v>715.3219541700619</v>
+        <v>464.9713081237143</v>
       </c>
       <c r="U18" t="n">
-        <v>518.020564809015</v>
+        <v>267.6699187626674</v>
       </c>
       <c r="V18" t="n">
-        <v>518.020564809015</v>
+        <v>53.95839175570123</v>
       </c>
       <c r="W18" t="n">
-        <v>304.7873965453438</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X18" t="n">
-        <v>128.4614146842366</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y18" t="n">
-        <v>128.4614146842366</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="C19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="D19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="E19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="F19" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G19" t="n">
         <v>17.56452459792769</v>
@@ -5676,49 +5676,49 @@
         <v>17.56452459792769</v>
       </c>
       <c r="K19" t="n">
-        <v>37.55032788682517</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L19" t="n">
-        <v>75.23712329476713</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M19" t="n">
-        <v>116.2921695945569</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N19" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O19" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P19" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R19" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S19" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T19" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U19" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="V19" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="W19" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="X19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>656.4519294174995</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C20" t="n">
-        <v>434.6776289386145</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D20" t="n">
-        <v>212.9033284597295</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E20" t="n">
         <v>17.56452459792769</v>
@@ -5752,7 +5752,7 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422701</v>
       </c>
       <c r="K20" t="n">
         <v>148.5608200474251</v>
@@ -5764,40 +5764,40 @@
         <v>420.4501281543855</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809663</v>
       </c>
       <c r="P20" t="n">
         <v>818.7605380598411</v>
       </c>
       <c r="Q20" t="n">
+        <v>878.2262298963846</v>
+      </c>
+      <c r="R20" t="n">
         <v>878.2262298963847</v>
       </c>
-      <c r="R20" t="n">
-        <v>878.2262298963846</v>
-      </c>
       <c r="S20" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947107</v>
       </c>
       <c r="T20" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947107</v>
       </c>
       <c r="U20" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947107</v>
       </c>
       <c r="V20" t="n">
-        <v>878.2262298963846</v>
+        <v>553.1645291158256</v>
       </c>
       <c r="W20" t="n">
-        <v>878.2262298963846</v>
+        <v>331.3902286369406</v>
       </c>
       <c r="X20" t="n">
-        <v>878.2262298963846</v>
+        <v>109.6159281580556</v>
       </c>
       <c r="Y20" t="n">
-        <v>878.2262298963846</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>268.4567536295896</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="C21" t="n">
-        <v>134.4616823785353</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="D21" t="n">
-        <v>17.56452459792769</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="E21" t="n">
-        <v>17.56452459792769</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="F21" t="n">
-        <v>17.56452459792769</v>
+        <v>187.2955671289025</v>
       </c>
       <c r="G21" t="n">
-        <v>17.56452459792769</v>
+        <v>81.05666125440383</v>
       </c>
       <c r="H21" t="n">
         <v>17.56452459792769</v>
@@ -5831,52 +5831,52 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J21" t="n">
-        <v>36.2691938677774</v>
+        <v>36.26919386777739</v>
       </c>
       <c r="K21" t="n">
-        <v>99.89115689943307</v>
+        <v>99.89115689943301</v>
       </c>
       <c r="L21" t="n">
-        <v>204.1993668012281</v>
+        <v>204.1993668012279</v>
       </c>
       <c r="M21" t="n">
-        <v>333.7616594659743</v>
+        <v>333.7616594659742</v>
       </c>
       <c r="N21" t="n">
-        <v>472.5885816838001</v>
+        <v>472.5885816837999</v>
       </c>
       <c r="O21" t="n">
-        <v>590.5890764168994</v>
+        <v>590.589076416899</v>
       </c>
       <c r="P21" t="n">
-        <v>677.4649847190642</v>
+        <v>677.4649847190638</v>
       </c>
       <c r="Q21" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="R21" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="S21" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="T21" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="U21" t="n">
-        <v>715.3219541700623</v>
+        <v>518.020564809015</v>
       </c>
       <c r="V21" t="n">
-        <v>715.3219541700623</v>
+        <v>304.3090378020488</v>
       </c>
       <c r="W21" t="n">
-        <v>715.3219541700623</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="X21" t="n">
-        <v>538.9959723089551</v>
+        <v>296.2554469463979</v>
       </c>
       <c r="Y21" t="n">
-        <v>379.5940126727851</v>
+        <v>296.2554469463979</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.7171855514427</v>
+        <v>182.1956504873364</v>
       </c>
       <c r="C22" t="n">
-        <v>177.0591692750177</v>
+        <v>182.1956504873364</v>
       </c>
       <c r="D22" t="n">
-        <v>17.56452459792769</v>
+        <v>182.1956504873364</v>
       </c>
       <c r="E22" t="n">
-        <v>17.56452459792769</v>
+        <v>182.1956504873364</v>
       </c>
       <c r="F22" t="n">
         <v>17.56452459792769</v>
@@ -5913,49 +5913,49 @@
         <v>17.56452459792769</v>
       </c>
       <c r="K22" t="n">
-        <v>37.55032788682519</v>
+        <v>37.55032788682517</v>
       </c>
       <c r="L22" t="n">
-        <v>75.23712329476716</v>
+        <v>75.23712329476713</v>
       </c>
       <c r="M22" t="n">
-        <v>116.292169594557</v>
+        <v>116.2921695945569</v>
       </c>
       <c r="N22" t="n">
-        <v>159.5533166477872</v>
+        <v>159.5533166477871</v>
       </c>
       <c r="O22" t="n">
         <v>191.2851869593632</v>
       </c>
       <c r="P22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="R22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="S22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="T22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="U22" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="V22" t="n">
-        <v>210.7171855514427</v>
+        <v>182.1956504873364</v>
       </c>
       <c r="W22" t="n">
-        <v>210.7171855514427</v>
+        <v>182.1956504873364</v>
       </c>
       <c r="X22" t="n">
-        <v>210.7171855514427</v>
+        <v>182.1956504873364</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.7171855514427</v>
+        <v>182.1956504873364</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>444.2324402545842</v>
+        <v>1283.239222951408</v>
       </c>
       <c r="C23" t="n">
-        <v>444.2324402545842</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D23" t="n">
-        <v>444.2324402545842</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E23" t="n">
-        <v>444.2324402545842</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F23" t="n">
-        <v>444.2324402545842</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G23" t="n">
         <v>37.7440047352622</v>
@@ -5986,25 +5986,25 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J23" t="n">
-        <v>151.4749218512235</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987907</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N23" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O23" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P23" t="n">
         <v>1687.808675484973</v>
@@ -6025,16 +6025,16 @@
         <v>1887.20023676311</v>
       </c>
       <c r="V23" t="n">
-        <v>1537.362682099591</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="W23" t="n">
-        <v>1153.602381234759</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="X23" t="n">
-        <v>752.958983403712</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="Y23" t="n">
-        <v>444.2324402545842</v>
+        <v>1693.460402615897</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>562.4547644187089</v>
+        <v>514.9207378125245</v>
       </c>
       <c r="C24" t="n">
-        <v>549.0585002454092</v>
+        <v>380.9256665614703</v>
       </c>
       <c r="D24" t="n">
-        <v>432.1613424648016</v>
+        <v>264.0285087808627</v>
       </c>
       <c r="E24" t="n">
-        <v>311.6685264571296</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="F24" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G24" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H24" t="n">
         <v>37.7440047352622</v>
@@ -6095,25 +6095,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S24" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T24" t="n">
-        <v>1186.671426824303</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U24" t="n">
-        <v>989.3994596893464</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="V24" t="n">
-        <v>775.6879326823802</v>
+        <v>1058.689697496237</v>
       </c>
       <c r="W24" t="n">
-        <v>562.4547644187089</v>
+        <v>845.4565292325657</v>
       </c>
       <c r="X24" t="n">
-        <v>562.4547644187089</v>
+        <v>669.1305473714585</v>
       </c>
       <c r="Y24" t="n">
-        <v>562.4547644187089</v>
+        <v>655.2237704481112</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C25" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D25" t="n">
-        <v>37.7440047352622</v>
+        <v>419.361349994968</v>
       </c>
       <c r="E25" t="n">
-        <v>37.7440047352622</v>
+        <v>258.4505348632874</v>
       </c>
       <c r="F25" t="n">
-        <v>37.7440047352622</v>
+        <v>93.81940897387869</v>
       </c>
       <c r="G25" t="n">
-        <v>37.7440047352622</v>
+        <v>93.81940897387869</v>
       </c>
       <c r="H25" t="n">
-        <v>37.7440047352622</v>
+        <v>93.81940897387869</v>
       </c>
       <c r="I25" t="n">
         <v>37.7440047352622</v>
@@ -6180,19 +6180,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U25" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V25" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W25" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X25" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y25" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1283.239222951408</v>
+        <v>983.83930587592</v>
       </c>
       <c r="C26" t="n">
-        <v>873.114632264678</v>
+        <v>983.83930587592</v>
       </c>
       <c r="D26" t="n">
-        <v>873.114632264678</v>
+        <v>579.3753759689805</v>
       </c>
       <c r="E26" t="n">
-        <v>458.7744167815746</v>
+        <v>165.0351604858772</v>
       </c>
       <c r="F26" t="n">
-        <v>37.74400473526219</v>
+        <v>165.0351604858772</v>
       </c>
       <c r="G26" t="n">
-        <v>37.74400473526219</v>
+        <v>165.0351604858772</v>
       </c>
       <c r="H26" t="n">
         <v>37.74400473526219</v>
@@ -6235,13 +6235,13 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
@@ -6253,25 +6253,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S26" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T26" t="n">
-        <v>1683.882620782455</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U26" t="n">
-        <v>1683.882620782455</v>
+        <v>1333.676860539439</v>
       </c>
       <c r="V26" t="n">
-        <v>1683.882620782455</v>
+        <v>983.83930587592</v>
       </c>
       <c r="W26" t="n">
-        <v>1683.882620782455</v>
+        <v>983.83930587592</v>
       </c>
       <c r="X26" t="n">
-        <v>1283.239222951408</v>
+        <v>983.83930587592</v>
       </c>
       <c r="Y26" t="n">
-        <v>1283.239222951408</v>
+        <v>983.83930587592</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>683.0535714964635</v>
+        <v>566.1564137158559</v>
       </c>
       <c r="C27" t="n">
-        <v>549.0585002454092</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="D27" t="n">
         <v>432.1613424648016</v>
@@ -6332,25 +6332,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S27" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T27" t="n">
-        <v>1272.401224503203</v>
+        <v>1292.80610125825</v>
       </c>
       <c r="U27" t="n">
-        <v>1075.129257368246</v>
+        <v>1292.80610125825</v>
       </c>
       <c r="V27" t="n">
-        <v>861.4177303612801</v>
+        <v>1079.094574251284</v>
       </c>
       <c r="W27" t="n">
-        <v>861.4177303612801</v>
+        <v>865.8614059876126</v>
       </c>
       <c r="X27" t="n">
-        <v>861.4177303612801</v>
+        <v>865.8614059876126</v>
       </c>
       <c r="Y27" t="n">
-        <v>823.3566041320502</v>
+        <v>706.4594463514426</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.4205896667782</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4205896667782</v>
+        <v>522.7805904334414</v>
       </c>
       <c r="D28" t="n">
-        <v>37.74400473526219</v>
+        <v>363.2859457563515</v>
       </c>
       <c r="E28" t="n">
-        <v>37.74400473526219</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="F28" t="n">
         <v>37.74400473526219</v>
@@ -6429,7 +6429,7 @@
         <v>578.8559946720579</v>
       </c>
       <c r="Y28" t="n">
-        <v>354.1202960608226</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1392.738531588258</v>
+        <v>469.6168007505917</v>
       </c>
       <c r="C29" t="n">
-        <v>982.6139409015283</v>
+        <v>469.6168007505917</v>
       </c>
       <c r="D29" t="n">
-        <v>982.6139409015283</v>
+        <v>469.6168007505917</v>
       </c>
       <c r="E29" t="n">
-        <v>982.6139409015283</v>
+        <v>469.6168007505917</v>
       </c>
       <c r="F29" t="n">
-        <v>732.2020882765901</v>
+        <v>469.6168007505917</v>
       </c>
       <c r="G29" t="n">
-        <v>325.7136527572681</v>
+        <v>63.12836523126964</v>
       </c>
       <c r="H29" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I29" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J29" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L29" t="n">
         <v>594.3775951131297</v>
@@ -6484,31 +6484,31 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q29" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R29" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T29" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U29" t="n">
-        <v>1802.959711252748</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="V29" t="n">
-        <v>1802.959711252748</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="W29" t="n">
-        <v>1802.959711252748</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="X29" t="n">
-        <v>1802.959711252748</v>
+        <v>879.8379804150811</v>
       </c>
       <c r="Y29" t="n">
-        <v>1802.959711252748</v>
+        <v>879.8379804150811</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>171.7390759863165</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="C30" t="n">
-        <v>37.74400473526219</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="D30" t="n">
-        <v>37.74400473526219</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="E30" t="n">
-        <v>37.74400473526219</v>
+        <v>206.1721434399488</v>
       </c>
       <c r="F30" t="n">
-        <v>37.74400473526219</v>
+        <v>97.21226362245341</v>
       </c>
       <c r="G30" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H30" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I30" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J30" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K30" t="n">
         <v>232.7978194276822</v>
@@ -6569,25 +6569,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S30" t="n">
-        <v>1426.49808400765</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T30" t="n">
-        <v>1271.986712524774</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U30" t="n">
-        <v>1074.714745389818</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V30" t="n">
-        <v>861.0032183828515</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W30" t="n">
-        <v>647.7700501191803</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X30" t="n">
-        <v>471.4440682580731</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y30" t="n">
-        <v>312.0421086219031</v>
+        <v>466.9679920832075</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>304.9702496115798</v>
+        <v>208.8373771735457</v>
       </c>
       <c r="C31" t="n">
-        <v>304.9702496115798</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D31" t="n">
-        <v>304.9702496115798</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E31" t="n">
-        <v>304.9702496115798</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F31" t="n">
-        <v>203.9896768427527</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G31" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H31" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I31" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J31" t="n">
         <v>56.4452522174457</v>
@@ -6657,16 +6657,16 @@
         <v>578.8559946720579</v>
       </c>
       <c r="V31" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W31" t="n">
-        <v>304.9702496115798</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X31" t="n">
-        <v>304.9702496115798</v>
+        <v>433.573075784781</v>
       </c>
       <c r="Y31" t="n">
-        <v>304.9702496115798</v>
+        <v>208.8373771735457</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>325.7136527572681</v>
+        <v>668.7184578933495</v>
       </c>
       <c r="C32" t="n">
-        <v>325.7136527572681</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="D32" t="n">
-        <v>325.7136527572681</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E32" t="n">
-        <v>325.7136527572681</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F32" t="n">
-        <v>325.7136527572681</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G32" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H32" t="n">
         <v>37.74400473526219</v>
@@ -6709,7 +6709,7 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655642</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N32" t="n">
         <v>1187.216805582613</v>
@@ -6727,25 +6727,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S32" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U32" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="V32" t="n">
-        <v>1537.514903304715</v>
+        <v>1453.122156589228</v>
       </c>
       <c r="W32" t="n">
-        <v>1537.514903304715</v>
+        <v>1069.361855724397</v>
       </c>
       <c r="X32" t="n">
-        <v>1136.871505473667</v>
+        <v>668.7184578933495</v>
       </c>
       <c r="Y32" t="n">
-        <v>735.9348324217575</v>
+        <v>668.7184578933495</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>561.7127380895234</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="C33" t="n">
-        <v>427.7176668384691</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D33" t="n">
-        <v>310.8205090578616</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E33" t="n">
-        <v>190.3276930501895</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5356927731907</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G33" t="n">
         <v>37.74400473526219</v>
@@ -6806,25 +6806,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S33" t="n">
-        <v>1426.912595986079</v>
+        <v>1425.6196980987</v>
       </c>
       <c r="T33" t="n">
-        <v>1272.401224503203</v>
+        <v>1271.108326615824</v>
       </c>
       <c r="U33" t="n">
-        <v>1075.129257368246</v>
+        <v>1073.836359480867</v>
       </c>
       <c r="V33" t="n">
-        <v>861.4177303612801</v>
+        <v>860.1248324739011</v>
       </c>
       <c r="W33" t="n">
-        <v>861.4177303612801</v>
+        <v>860.1248324739011</v>
       </c>
       <c r="X33" t="n">
-        <v>861.4177303612801</v>
+        <v>683.7988506127938</v>
       </c>
       <c r="Y33" t="n">
-        <v>702.0157707251101</v>
+        <v>524.3968909766238</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1887.20023676311</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C34" t="n">
-        <v>1716.106864324826</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D34" t="n">
-        <v>1671.630187847403</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E34" t="n">
-        <v>1510.719372715723</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J34" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K34" t="n">
-        <v>1427.468776269657</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L34" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M34" t="n">
-        <v>1618.446361557357</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N34" t="n">
-        <v>1717.9406327491</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O34" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P34" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.20023676311</v>
+        <v>311.6297497957403</v>
       </c>
       <c r="V34" t="n">
-        <v>1887.20023676311</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="W34" t="n">
-        <v>1887.20023676311</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X34" t="n">
-        <v>1887.20023676311</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1887.20023676311</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>914.7399555752552</v>
+        <v>489.4583181554748</v>
       </c>
       <c r="C35" t="n">
-        <v>914.7399555752552</v>
+        <v>442.2079346422017</v>
       </c>
       <c r="D35" t="n">
-        <v>914.7399555752552</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E35" t="n">
-        <v>914.7399555752552</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F35" t="n">
-        <v>732.2020882765901</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G35" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I35" t="n">
         <v>37.74400473526225</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
         <v>342.4771847987904</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N35" t="n">
         <v>1187.216805582613</v>
@@ -6958,7 +6958,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q35" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R35" t="n">
         <v>1887.20023676311</v>
@@ -6967,22 +6967,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T35" t="n">
-        <v>1674.798689903264</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U35" t="n">
-        <v>1674.798689903264</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V35" t="n">
-        <v>1324.961135239745</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="W35" t="n">
-        <v>1324.961135239745</v>
+        <v>1291.038389038432</v>
       </c>
       <c r="X35" t="n">
-        <v>1324.961135239745</v>
+        <v>890.3949912073847</v>
       </c>
       <c r="Y35" t="n">
-        <v>1324.961135239745</v>
+        <v>489.4583181554748</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>683.0535714964635</v>
+        <v>292.2318919939885</v>
       </c>
       <c r="C36" t="n">
-        <v>549.0585002454092</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="D36" t="n">
-        <v>432.1613424648016</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="E36" t="n">
-        <v>311.6685264571296</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F36" t="n">
-        <v>202.7086466396342</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G36" t="n">
-        <v>96.91695860170569</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H36" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J36" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K36" t="n">
         <v>232.7978194276822</v>
@@ -7046,22 +7046,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1426.912595986079</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U36" t="n">
-        <v>1426.912595986079</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V36" t="n">
-        <v>1372.317713892999</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W36" t="n">
-        <v>1159.084545629327</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X36" t="n">
-        <v>982.7585637682201</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y36" t="n">
-        <v>823.3566041320502</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H37" t="n">
-        <v>123.8754111516284</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
         <v>56.4452522174457</v>
@@ -7119,28 +7119,28 @@
         <v>578.8559946720579</v>
       </c>
       <c r="R37" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S37" t="n">
-        <v>369.8768379572616</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T37" t="n">
-        <v>134.6209890655461</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U37" t="n">
-        <v>134.6209890655461</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="V37" t="n">
-        <v>134.6209890655461</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="W37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y37" t="n">
-        <v>134.6209890655461</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>325.7136527572681</v>
+        <v>1150.178458927101</v>
       </c>
       <c r="C38" t="n">
-        <v>325.7136527572681</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="D38" t="n">
-        <v>325.7136527572681</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="E38" t="n">
         <v>325.7136527572681</v>
@@ -7168,22 +7168,22 @@
         <v>325.7136527572681</v>
       </c>
       <c r="H38" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512225</v>
       </c>
       <c r="K38" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987897</v>
       </c>
       <c r="L38" t="n">
-        <v>594.3775951131297</v>
+        <v>594.377595113129</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655634</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
@@ -7192,34 +7192,34 @@
         <v>1464.838169622266</v>
       </c>
       <c r="P38" t="n">
-        <v>1687.808675484973</v>
+        <v>1687.808675484972</v>
       </c>
       <c r="Q38" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R38" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S38" t="n">
-        <v>1887.20023676311</v>
+        <v>1883.776314455452</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.20023676311</v>
+        <v>1883.776314455452</v>
       </c>
       <c r="U38" t="n">
-        <v>1887.20023676311</v>
+        <v>1883.776314455452</v>
       </c>
       <c r="V38" t="n">
-        <v>1537.362682099591</v>
+        <v>1533.938759791933</v>
       </c>
       <c r="W38" t="n">
-        <v>1153.602381234759</v>
+        <v>1150.178458927101</v>
       </c>
       <c r="X38" t="n">
-        <v>752.958983403712</v>
+        <v>1150.178458927101</v>
       </c>
       <c r="Y38" t="n">
-        <v>352.022310351802</v>
+        <v>1150.178458927101</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>632.4412287417762</v>
+        <v>398.023580031917</v>
       </c>
       <c r="C39" t="n">
-        <v>614.928803292901</v>
+        <v>264.0285087808627</v>
       </c>
       <c r="D39" t="n">
-        <v>498.0316455122934</v>
+        <v>264.0285087808627</v>
       </c>
       <c r="E39" t="n">
-        <v>498.0316455122934</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="F39" t="n">
-        <v>498.0316455122934</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G39" t="n">
-        <v>498.0316455122934</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H39" t="n">
-        <v>498.0316455122934</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I39" t="n">
-        <v>498.5685927704026</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J39" t="n">
-        <v>558.6847198523049</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K39" t="n">
-        <v>693.0854602047134</v>
+        <v>232.7978194276822</v>
       </c>
       <c r="L39" t="n">
-        <v>892.5644708578968</v>
+        <v>432.2768300808657</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.186599082843</v>
+        <v>672.8989583058121</v>
       </c>
       <c r="N39" t="n">
-        <v>1386.012780239293</v>
+        <v>925.7251394622621</v>
       </c>
       <c r="O39" t="n">
-        <v>1608.300325338226</v>
+        <v>1148.012684561194</v>
       </c>
       <c r="P39" t="n">
-        <v>1778.87578566774</v>
+        <v>1318.588144890709</v>
       </c>
       <c r="Q39" t="n">
-        <v>1872.683689066186</v>
+        <v>1412.396048289155</v>
       </c>
       <c r="R39" t="n">
-        <v>1887.20023676311</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="S39" t="n">
-        <v>1887.20023676311</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T39" t="n">
-        <v>1732.688865280234</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U39" t="n">
-        <v>1535.416898145278</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="V39" t="n">
-        <v>1321.705371138311</v>
+        <v>1087.287722428452</v>
       </c>
       <c r="W39" t="n">
-        <v>1108.47220287464</v>
+        <v>874.0545541647809</v>
       </c>
       <c r="X39" t="n">
-        <v>932.1462210135328</v>
+        <v>697.7285723036737</v>
       </c>
       <c r="Y39" t="n">
-        <v>772.7442613773628</v>
+        <v>538.3266126675037</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>304.9702496115798</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C40" t="n">
-        <v>304.9702496115798</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D40" t="n">
-        <v>304.9702496115798</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E40" t="n">
-        <v>304.9702496115798</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F40" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G40" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H40" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I40" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J40" t="n">
         <v>56.4452522174457</v>
@@ -7356,28 +7356,28 @@
         <v>578.8559946720579</v>
       </c>
       <c r="R40" t="n">
-        <v>578.8559946720579</v>
+        <v>538.7590946257694</v>
       </c>
       <c r="S40" t="n">
-        <v>578.8559946720579</v>
+        <v>369.8768379572616</v>
       </c>
       <c r="T40" t="n">
-        <v>578.8559946720579</v>
+        <v>369.8768379572616</v>
       </c>
       <c r="U40" t="n">
-        <v>578.8559946720579</v>
+        <v>369.8768379572616</v>
       </c>
       <c r="V40" t="n">
-        <v>304.9702496115798</v>
+        <v>95.99109289678347</v>
       </c>
       <c r="W40" t="n">
-        <v>304.9702496115798</v>
+        <v>95.99109289678347</v>
       </c>
       <c r="X40" t="n">
-        <v>304.9702496115798</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y40" t="n">
-        <v>304.9702496115798</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>868.8990074683045</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="C41" t="n">
-        <v>458.7744167815746</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="D41" t="n">
-        <v>458.7744167815746</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7744167815746</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="F41" t="n">
-        <v>37.74400473526219</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="G41" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H41" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526148</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J41" t="n">
-        <v>151.4749218512223</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K41" t="n">
-        <v>342.4771847987896</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L41" t="n">
-        <v>594.377595113129</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655636</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N41" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O41" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P41" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q41" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R41" t="n">
         <v>1887.20023676311</v>
@@ -7441,22 +7441,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U41" t="n">
-        <v>1680.056860184704</v>
+        <v>1482.683040771157</v>
       </c>
       <c r="V41" t="n">
-        <v>1680.056860184704</v>
+        <v>1132.845486107637</v>
       </c>
       <c r="W41" t="n">
-        <v>1680.056860184704</v>
+        <v>1132.845486107637</v>
       </c>
       <c r="X41" t="n">
-        <v>1680.056860184704</v>
+        <v>732.2020882765901</v>
       </c>
       <c r="Y41" t="n">
-        <v>1279.120187132794</v>
+        <v>732.2020882765901</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>583.1370821066679</v>
+        <v>171.7390759863165</v>
       </c>
       <c r="C42" t="n">
-        <v>449.1420108556136</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D42" t="n">
-        <v>332.244853075006</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E42" t="n">
-        <v>211.752037067334</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F42" t="n">
-        <v>102.7921572498386</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G42" t="n">
-        <v>96.91695860170567</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H42" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J42" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K42" t="n">
         <v>232.7978194276822</v>
@@ -7517,25 +7517,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S42" t="n">
-        <v>1426.912595986079</v>
+        <v>1426.49808400765</v>
       </c>
       <c r="T42" t="n">
-        <v>1272.401224503203</v>
+        <v>1271.986712524774</v>
       </c>
       <c r="U42" t="n">
-        <v>1272.401224503203</v>
+        <v>1074.714745389818</v>
       </c>
       <c r="V42" t="n">
-        <v>1272.401224503203</v>
+        <v>861.0032183828515</v>
       </c>
       <c r="W42" t="n">
-        <v>1059.168056239532</v>
+        <v>647.7700501191803</v>
       </c>
       <c r="X42" t="n">
-        <v>882.8420743784245</v>
+        <v>471.4440682580731</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.4401147422545</v>
+        <v>312.0421086219031</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1346.088246826314</v>
+        <v>75.05063156969698</v>
       </c>
       <c r="C43" t="n">
-        <v>1346.088246826314</v>
+        <v>75.05063156969698</v>
       </c>
       <c r="D43" t="n">
-        <v>1346.088246826314</v>
+        <v>75.05063156969698</v>
       </c>
       <c r="E43" t="n">
-        <v>1346.088246826314</v>
+        <v>75.05063156969698</v>
       </c>
       <c r="F43" t="n">
-        <v>1346.088246826314</v>
+        <v>75.05063156969698</v>
       </c>
       <c r="G43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J43" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K43" t="n">
-        <v>1427.468776269657</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L43" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M43" t="n">
-        <v>1618.446361557357</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N43" t="n">
-        <v>1717.9406327491</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O43" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P43" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q43" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R43" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S43" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T43" t="n">
-        <v>1651.944387871394</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U43" t="n">
-        <v>1369.201043270262</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V43" t="n">
-        <v>1346.088246826314</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W43" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="X43" t="n">
-        <v>1346.088246826314</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="Y43" t="n">
-        <v>1346.088246826314</v>
+        <v>75.05063156969698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1153.232500322903</v>
+        <v>1136.719284268543</v>
       </c>
       <c r="C44" t="n">
-        <v>1153.232500322903</v>
+        <v>1136.719284268543</v>
       </c>
       <c r="D44" t="n">
-        <v>1153.232500322903</v>
+        <v>1136.719284268543</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.232500322903</v>
+        <v>722.37906878544</v>
       </c>
       <c r="F44" t="n">
-        <v>732.2020882765901</v>
+        <v>301.3486567391276</v>
       </c>
       <c r="G44" t="n">
-        <v>325.7136527572681</v>
+        <v>301.3486567391276</v>
       </c>
       <c r="H44" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I44" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526202</v>
       </c>
       <c r="J44" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K44" t="n">
         <v>342.4771847987904</v>
       </c>
       <c r="L44" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M44" t="n">
         <v>887.4914597655645</v>
       </c>
       <c r="N44" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O44" t="n">
         <v>1464.838169622267</v>
@@ -7684,16 +7684,16 @@
         <v>1887.20023676311</v>
       </c>
       <c r="V44" t="n">
-        <v>1887.20023676311</v>
+        <v>1537.362682099591</v>
       </c>
       <c r="W44" t="n">
-        <v>1887.20023676311</v>
+        <v>1537.362682099591</v>
       </c>
       <c r="X44" t="n">
-        <v>1554.169173374813</v>
+        <v>1136.719284268543</v>
       </c>
       <c r="Y44" t="n">
-        <v>1153.232500322903</v>
+        <v>1136.719284268543</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>312.4566206003316</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="C45" t="n">
-        <v>312.4566206003316</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D45" t="n">
-        <v>195.559462819724</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E45" t="n">
-        <v>75.06664681205203</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F45" t="n">
-        <v>37.7440047352622</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G45" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H45" t="n">
         <v>37.7440047352622</v>
@@ -7757,22 +7757,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T45" t="n">
-        <v>1272.401224503203</v>
+        <v>1349.60114451211</v>
       </c>
       <c r="U45" t="n">
-        <v>1075.129257368246</v>
+        <v>1152.329177377154</v>
       </c>
       <c r="V45" t="n">
-        <v>861.4177303612801</v>
+        <v>938.6176503701876</v>
       </c>
       <c r="W45" t="n">
-        <v>648.1845620976088</v>
+        <v>725.3844821065163</v>
       </c>
       <c r="X45" t="n">
-        <v>471.8585802365016</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="Y45" t="n">
-        <v>312.4566206003316</v>
+        <v>549.0585002454092</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.23455100034454</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C46" t="n">
         <v>37.7440047352622</v>
@@ -7845,13 +7845,13 @@
         <v>304.9702496115798</v>
       </c>
       <c r="W46" t="n">
-        <v>304.9702496115798</v>
+        <v>262.4797033464975</v>
       </c>
       <c r="X46" t="n">
-        <v>304.9702496115798</v>
+        <v>262.4797033464975</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.23455100034454</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.11771793070533</v>
+        <v>13.1177179307054</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>13.43112086737344</v>
       </c>
       <c r="R2" t="n">
-        <v>24.06426006678054</v>
+        <v>42.75293345816472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.51103305293357</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.689488428781347</v>
+        <v>8.244671795650582</v>
       </c>
       <c r="R3" t="n">
-        <v>4.16859363458579</v>
+        <v>35.4354267849248</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.9368597546622</v>
+        <v>28.93685975466223</v>
       </c>
       <c r="K4" t="n">
-        <v>15.28206119291185</v>
+        <v>15.2820611929119</v>
       </c>
       <c r="L4" t="n">
-        <v>7.321586928322581</v>
+        <v>7.321586928322638</v>
       </c>
       <c r="M4" t="n">
-        <v>6.386652893333235</v>
+        <v>6.386652893333292</v>
       </c>
       <c r="N4" t="n">
-        <v>3.020350146331239</v>
+        <v>3.020350146331296</v>
       </c>
       <c r="O4" t="n">
-        <v>11.09968222972732</v>
+        <v>11.09968222972737</v>
       </c>
       <c r="P4" t="n">
-        <v>17.29577477735974</v>
+        <v>17.29577477735978</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.71515254876331</v>
+        <v>34.71515254876334</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>13.70815661144291</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>3.878875624559463</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.5722022158511066</v>
       </c>
       <c r="O7" t="n">
         <v>8.838421371704094</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.530866342333198</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.322714328675332</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.61802642167716</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3.748906304207694</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>33.24871511996928</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8619,13 +8619,13 @@
         <v>2.931723680530631</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.7581576027819</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.457893659671917</v>
+        <v>6.926171542637363</v>
       </c>
       <c r="P10" t="n">
         <v>13.7246153883036</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.8258886552718</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.150849970123495</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.70128436951478</v>
+        <v>14.70128436951479</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7.352495282391892</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123488</v>
+        <v>9.150849970123495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>378.9299801779334</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9316432678622</v>
+        <v>372.6648101175234</v>
       </c>
       <c r="H2" t="n">
         <v>300.5346997991465</v>
       </c>
       <c r="I2" t="n">
-        <v>58.14072082918598</v>
+        <v>58.14072082918601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.43112086737335</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>86.49693591874666</v>
+        <v>117.7637690690857</v>
       </c>
       <c r="T2" t="n">
-        <v>185.612371425002</v>
+        <v>216.879204575341</v>
       </c>
       <c r="U2" t="n">
-        <v>223.1663050328873</v>
+        <v>223.1663050328875</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22612,7 +22612,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>377.9482904613531</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>107.6331691588919</v>
       </c>
       <c r="C3" t="n">
-        <v>101.3882873882048</v>
+        <v>101.3882873882049</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>88.18835956398304</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
@@ -22643,10 +22643,10 @@
         <v>105.5406715694666</v>
       </c>
       <c r="H3" t="n">
-        <v>35.10735041885297</v>
+        <v>66.37418356919196</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.473610219015864</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>99.86032094978739</v>
+        <v>99.86032094978741</v>
       </c>
       <c r="T3" t="n">
         <v>156.2186326739773</v>
@@ -22694,7 +22694,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>126.5411068894694</v>
       </c>
     </row>
     <row r="4">
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.1128508300083</v>
+        <v>70.11285083000831</v>
       </c>
       <c r="S4" t="n">
         <v>178.9826041839656</v>
@@ -22804,7 +22804,7 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I5" t="n">
-        <v>56.76574385712077</v>
+        <v>19.2364393950343</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.579696329610385</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.983284084036413</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>79.42174720213735</v>
+        <v>79.42174720213734</v>
       </c>
       <c r="T5" t="n">
-        <v>179.1937763418982</v>
+        <v>216.7230808039846</v>
       </c>
       <c r="U5" t="n">
-        <v>231.4651647115468</v>
+        <v>254.4302849789525</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>313.2833677466784</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>342.3933933940966</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22877,13 +22877,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>67.99228462148537</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H6" t="n">
-        <v>38.42513322504512</v>
+        <v>66.1898869291027</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.81660357746247</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>99.50587214380286</v>
+        <v>61.9765676817164</v>
       </c>
       <c r="T6" t="n">
         <v>156.1417168646031</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3510775903192</v>
+        <v>162.2952662201134</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>173.5715321189481</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>120.2786355777218</v>
       </c>
     </row>
     <row r="7">
@@ -22977,7 +22977,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5722022158511066</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -23032,7 +23032,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>371.4144805752553</v>
       </c>
       <c r="G8" t="n">
         <v>403.865817831984</v>
@@ -23041,7 +23041,7 @@
         <v>299.8605650539583</v>
       </c>
       <c r="I8" t="n">
-        <v>10.19735836189544</v>
+        <v>55.60298571248951</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>70.85814459841581</v>
       </c>
       <c r="T8" t="n">
-        <v>183.6637569014723</v>
+        <v>216.5910537297839</v>
       </c>
       <c r="U8" t="n">
         <v>254.427872148356</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>300.9335517662901</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>339.9294212857799</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23102,25 +23102,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>87.24949318794967</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>75.73490963239826</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>73.88226049700123</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.5054518562984</v>
+        <v>60.0998245057043</v>
       </c>
       <c r="H9" t="n">
         <v>66.03403528675115</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.26100167352979</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>53.80050287433556</v>
+        <v>99.20613022492962</v>
       </c>
       <c r="T9" t="n">
-        <v>110.671045163727</v>
+        <v>156.076672514321</v>
       </c>
       <c r="U9" t="n">
-        <v>153.2097351073396</v>
+        <v>195.3500159306301</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23190,7 +23190,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>161.5165367475492</v>
       </c>
       <c r="G10" t="n">
         <v>165.2301665618121</v>
@@ -23211,7 +23211,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.7581576027819</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>346.7942256991377</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337738</v>
       </c>
       <c r="E11" t="n">
-        <v>248.7131679488903</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H11" t="n">
-        <v>74.00791599383146</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.8998645763261</v>
@@ -23317,7 +23317,7 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427879</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472946</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>93.09630611656613</v>
@@ -23393,19 +23393,19 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>81.70752794820416</v>
       </c>
       <c r="X12" t="n">
-        <v>51.48399214798715</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23433,10 +23433,10 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
-        <v>55.13194041404763</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.150849970123495</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>56.38567239618433</v>
@@ -23475,7 +23475,7 @@
         <v>279.9361575053235</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>79.92575326589329</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937484</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>186.4667873057664</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>190.6402558541761</v>
+        <v>190.640255854176</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1790576447439</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380179</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>152.9537632937002</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>105.1765168157536</v>
@@ -23594,7 +23594,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951479</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23639,10 +23639,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>71.93525632372427</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.46956268088725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>136.7180787599983</v>
       </c>
       <c r="G16" t="n">
-        <v>116.301263507873</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
         <v>96.43258009724633</v>
       </c>
       <c r="J16" t="n">
-        <v>7.352495282391892</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.150849970123495</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>56.38567239618433</v>
@@ -23737,13 +23737,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>207.0338747846863</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>190.6402558541761</v>
       </c>
       <c r="F17" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>183.6944827100391</v>
@@ -23752,7 +23752,7 @@
         <v>293.5644734679276</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380179</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>152.9537632937003</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820869</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23819,7 +23819,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>9.499966662149504</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
@@ -23831,7 +23831,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I18" t="n">
-        <v>14.70128436951479</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>175.0709080948387</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -23901,10 +23901,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>136.7180787599983</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.5679993783892</v>
@@ -23913,7 +23913,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J19" t="n">
-        <v>7.352495282391892</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>44.73928917493365</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.5624103937484</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>186.4667873057664</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>216.8113975050885</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -23989,7 +23989,7 @@
         <v>293.5644734679276</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90177044380178</v>
+        <v>31.90177044380179</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.8998645763261</v>
@@ -24028,16 +24028,16 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427879</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820869</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>177.0804063786408</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>305.7964167968642</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.8741158564672</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>93.09630611656613</v>
@@ -24104,19 +24104,19 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>203.1277816339401</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24129,16 +24129,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>136.0610026002398</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.9543984734636</v>
@@ -24150,7 +24150,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J22" t="n">
-        <v>7.352495282391885</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>279.9361575053235</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>242.9105678964081</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
         <v>285.0899515417858</v>
@@ -24265,16 +24265,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>154.5367433111437</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.28802860375436</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>119.392819006977</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8079400398083</v>
+        <v>144.0402308856944</v>
       </c>
     </row>
     <row r="25">
@@ -24369,13 +24369,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5832153864156</v>
@@ -24384,7 +24384,7 @@
         <v>139.2678442953623</v>
       </c>
       <c r="I25" t="n">
-        <v>85.27009235220248</v>
+        <v>29.75544215597215</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>15.36192872756644</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24445,22 +24445,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
-        <v>285.0899515417858</v>
+        <v>159.0717073486769</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.993091570399912</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>105.0733276896074</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>120.1274250728707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>113.8677885176703</v>
       </c>
       <c r="D28" t="n">
-        <v>30.50987914811822</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5832153864156</v>
@@ -24669,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24691,13 +24691,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>168.9123738271605</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>259.9594346507384</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7337711575492</v>
+        <v>45.86019485922993</v>
       </c>
       <c r="H30" t="n">
         <v>58.58122432777904</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.46213284346629</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24849,10 +24849,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>63.01404758937574</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
         <v>139.2678442953623</v>
@@ -24897,16 +24897,16 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>92.13033382050929</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>183.7821873174849</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24931,10 +24931,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.2775313912475</v>
@@ -24976,16 +24976,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1506989930733198</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25007,10 +25007,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>61.54620074509162</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H33" t="n">
         <v>58.58122432777904</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.8724997021109</v>
+        <v>83.59253079360545</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>113.8677885176704</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>164.5832153864156</v>
@@ -25131,10 +25131,10 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9159111551209</v>
+        <v>15.36192872756646</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>359.2454651017222</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>236.1076193001709</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>118.877520988951</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,13 +25286,13 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>157.525478464747</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
-        <v>128.6297221605838</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9159111551209</v>
+        <v>20.49400896390756</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>380.0733968492559</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.39812025525838</v>
+        <v>80.00843717067728</v>
       </c>
       <c r="T38" t="n">
         <v>210.2775313912475</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25472,19 +25472,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>115.3178193441573</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>58.58122432777904</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>113.184544385004</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>63.01404758937574</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
         <v>139.2678442953623</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>232.9032904027983</v>
@@ -25614,7 +25614,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>178.2958062390074</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25639,13 +25639,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>49.24054800230601</v>
+        <v>64.11799817414155</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25712,19 +25712,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>98.91732449589765</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,16 +25757,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.8724997021109</v>
+        <v>84.46213284346629</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5832153864156</v>
+        <v>127.6496548203251</v>
       </c>
       <c r="H43" t="n">
         <v>139.2678442953623</v>
@@ -25839,22 +25839,22 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V43" t="n">
-        <v>248.2652191303648</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>24.12134605795904</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>66.93621109832247</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>70.92086536329853</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>76.4279208088181</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>127.3167979114691</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>234.2133270437828</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>144335.8350180322</v>
+        <v>152619.0346363815</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>143067.207964109</v>
+        <v>156930.8822865385</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>151231.6113183241</v>
+        <v>161421.6399864105</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>261481.4486414937</v>
+        <v>264217.1053805386</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>262433.1295797148</v>
+        <v>264217.1053805386</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>261865.7843402389</v>
+        <v>264217.1053805386</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>262956.6196404569</v>
+        <v>264217.1053805386</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415762.4630384312</v>
+        <v>415762.4630384313</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415762.463038431</v>
+        <v>415762.4630384311</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415762.4630384312</v>
+        <v>415762.4630384311</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415762.4630384311</v>
+        <v>415762.463038431</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>415762.463038431</v>
+        <v>415762.4630384311</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415762.4630384311</v>
+        <v>415762.4630384312</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56312.67031581212</v>
+        <v>58679.29877819766</v>
       </c>
       <c r="C2" t="n">
-        <v>56710.27853615453</v>
+        <v>60671.32834256299</v>
       </c>
       <c r="D2" t="n">
-        <v>59775.03976772857</v>
+        <v>62686.47653003904</v>
       </c>
       <c r="E2" t="n">
-        <v>104592.5794565975</v>
+        <v>105374.1956677532</v>
       </c>
       <c r="F2" t="n">
-        <v>104864.4882960892</v>
+        <v>105374.1956677532</v>
       </c>
       <c r="G2" t="n">
-        <v>104702.389656239</v>
+        <v>105374.1956677532</v>
       </c>
       <c r="H2" t="n">
-        <v>105014.0568848727</v>
+        <v>105374.1956677532</v>
       </c>
       <c r="I2" t="n">
         <v>166304.9852153726</v>
@@ -26340,19 +26340,19 @@
         <v>166304.9852153725</v>
       </c>
       <c r="K2" t="n">
-        <v>166304.9852153724</v>
+        <v>166304.9852153726</v>
       </c>
       <c r="L2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
       <c r="M2" t="n">
         <v>166304.9852153726</v>
       </c>
       <c r="N2" t="n">
+        <v>166304.9852153725</v>
+      </c>
+      <c r="O2" t="n">
         <v>166304.9852153726</v>
-      </c>
-      <c r="O2" t="n">
-        <v>166304.9852153725</v>
       </c>
       <c r="P2" t="n">
         <v>166304.9852153726</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180510.4488779363</v>
+        <v>180510.4488779361</v>
       </c>
       <c r="C3" t="n">
-        <v>10101.792310646</v>
+        <v>10101.79231064623</v>
       </c>
       <c r="D3" t="n">
         <v>8871.778406779136</v>
       </c>
       <c r="E3" t="n">
-        <v>174858.7953097977</v>
+        <v>174858.7953097978</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>222021.1128848245</v>
+        <v>222021.1128848246</v>
       </c>
       <c r="J3" t="n">
-        <v>8180.779292787292</v>
+        <v>8180.779292787213</v>
       </c>
       <c r="K3" t="n">
-        <v>1611.759716561832</v>
+        <v>1611.759716561866</v>
       </c>
       <c r="L3" t="n">
         <v>1993.426436175281</v>
       </c>
       <c r="M3" t="n">
-        <v>43399.10839049724</v>
+        <v>43399.10839049723</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3575.737079717753</v>
+        <v>5942.365542103318</v>
       </c>
       <c r="C4" t="n">
-        <v>1318.705585186238</v>
+        <v>5279.755391594679</v>
       </c>
       <c r="D4" t="n">
-        <v>1826.967023001895</v>
+        <v>4738.403785312306</v>
       </c>
       <c r="E4" t="n">
-        <v>155.650379725</v>
+        <v>937.2665908806596</v>
       </c>
       <c r="F4" t="n">
-        <v>427.5592192167622</v>
+        <v>937.2665908806596</v>
       </c>
       <c r="G4" t="n">
-        <v>265.460579366482</v>
+        <v>937.2665908806596</v>
       </c>
       <c r="H4" t="n">
-        <v>577.1278080001954</v>
+        <v>937.2665908806605</v>
       </c>
       <c r="I4" t="n">
         <v>331.9759880256581</v>
@@ -26456,7 +26456,7 @@
         <v>331.9759880256581</v>
       </c>
       <c r="O4" t="n">
-        <v>331.9759880256581</v>
+        <v>331.9759880256582</v>
       </c>
       <c r="P4" t="n">
         <v>331.9759880256581</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39375.29454046337</v>
+        <v>39375.29454046336</v>
       </c>
       <c r="C5" t="n">
-        <v>39949.45546466368</v>
+        <v>39949.45546466367</v>
       </c>
       <c r="D5" t="n">
-        <v>40591.8881102477</v>
+        <v>40591.88811024769</v>
       </c>
       <c r="E5" t="n">
         <v>20886.45015162826</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.8101823053</v>
+        <v>-168484.2376187387</v>
       </c>
       <c r="C6" t="n">
-        <v>5340.325175658618</v>
+        <v>4014.857887046659</v>
       </c>
       <c r="D6" t="n">
-        <v>8484.406227699837</v>
+        <v>7169.014680025528</v>
       </c>
       <c r="E6" t="n">
-        <v>-91308.3163845535</v>
+        <v>-92410.26933653938</v>
       </c>
       <c r="F6" t="n">
-        <v>83550.47892524423</v>
+        <v>82448.52597325845</v>
       </c>
       <c r="G6" t="n">
-        <v>83550.47892524424</v>
+        <v>82448.52597325845</v>
       </c>
       <c r="H6" t="n">
-        <v>83550.47892524424</v>
+        <v>82448.52597325842</v>
       </c>
       <c r="I6" t="n">
-        <v>-96758.22479672055</v>
+        <v>-97555.52380096828</v>
       </c>
       <c r="J6" t="n">
-        <v>117082.1087953167</v>
+        <v>116284.809791069</v>
       </c>
       <c r="K6" t="n">
-        <v>123651.1283715421</v>
+        <v>122853.8293672945</v>
       </c>
       <c r="L6" t="n">
-        <v>123269.4616519287</v>
+        <v>122472.162647681</v>
       </c>
       <c r="M6" t="n">
-        <v>81863.77969760678</v>
+        <v>81066.48069335907</v>
       </c>
       <c r="N6" t="n">
-        <v>125262.888088104</v>
+        <v>124465.5890838563</v>
       </c>
       <c r="O6" t="n">
-        <v>125262.888088104</v>
+        <v>124465.5890838564</v>
       </c>
       <c r="P6" t="n">
-        <v>125262.888088104</v>
+        <v>124465.5890838564</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606772</v>
+        <v>176.452802060677</v>
       </c>
       <c r="C3" t="n">
         <v>185.3244840994871</v>
@@ -26746,13 +26746,13 @@
         <v>192.8268792353934</v>
       </c>
       <c r="E3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="F3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="G3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="H3" t="n">
         <v>345.7528191377621</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="C4" t="n">
         <v>37.52930446208646</v>
@@ -26798,16 +26798,16 @@
         <v>45.40562735059407</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="G4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="H4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="I4" t="n">
         <v>471.8000591907775</v>
@@ -26816,19 +26816,19 @@
         <v>471.8000591907774</v>
       </c>
       <c r="K4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="L4" t="n">
         <v>471.8000591907774</v>
       </c>
       <c r="M4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="N4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="O4" t="n">
         <v>471.8000591907775</v>
-      </c>
-      <c r="N4" t="n">
-        <v>471.8000591907775</v>
-      </c>
-      <c r="O4" t="n">
-        <v>471.8000591907774</v>
       </c>
       <c r="P4" t="n">
         <v>471.8000591907775</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606772</v>
+        <v>176.452802060677</v>
       </c>
       <c r="C3" t="n">
-        <v>8.871682038809951</v>
+        <v>8.87168203881015</v>
       </c>
       <c r="D3" t="n">
         <v>7.502395135906255</v>
       </c>
       <c r="E3" t="n">
-        <v>152.9259399023687</v>
+        <v>152.9259399023688</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>205.8378937266245</v>
+        <v>205.8378937266246</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="C4" t="n">
-        <v>6.262471311747483</v>
+        <v>6.262471311747637</v>
       </c>
       <c r="D4" t="n">
         <v>7.876322888507602</v>
@@ -27035,16 +27035,16 @@
         <v>252.2435017166814</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033868</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311747504</v>
+        <v>6.262471311747637</v>
       </c>
       <c r="L4" t="n">
         <v>7.876322888507616</v>
       </c>
       <c r="M4" t="n">
-        <v>174.1509301235022</v>
+        <v>174.1509301235021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311747483</v>
+        <v>6.262471311747637</v>
       </c>
       <c r="L4" t="n">
         <v>7.876322888507602</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7093579982338775</v>
+        <v>0.7093579982338767</v>
       </c>
       <c r="H2" t="n">
-        <v>7.264712599412699</v>
+        <v>7.264712599412691</v>
       </c>
       <c r="I2" t="n">
-        <v>27.34752422691159</v>
+        <v>27.34752422691156</v>
       </c>
       <c r="J2" t="n">
-        <v>60.20587340260261</v>
+        <v>60.20587340260255</v>
       </c>
       <c r="K2" t="n">
-        <v>90.23299746784267</v>
+        <v>90.23299746784257</v>
       </c>
       <c r="L2" t="n">
-        <v>111.9420123062927</v>
+        <v>111.9420123062926</v>
       </c>
       <c r="M2" t="n">
-        <v>124.5570576073844</v>
+        <v>124.5570576073843</v>
       </c>
       <c r="N2" t="n">
-        <v>124.1791239069583</v>
+        <v>124.1791239069582</v>
       </c>
       <c r="O2" t="n">
-        <v>119.5188424249283</v>
+        <v>119.5188424249282</v>
       </c>
       <c r="P2" t="n">
-        <v>102.0065668435295</v>
+        <v>102.0065668435293</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.60268353177869</v>
+        <v>76.60268353177861</v>
       </c>
       <c r="R2" t="n">
-        <v>44.55920935655885</v>
+        <v>44.5592093565588</v>
       </c>
       <c r="S2" t="n">
-        <v>16.1644953847545</v>
+        <v>16.16449538475448</v>
       </c>
       <c r="T2" t="n">
-        <v>3.1052146372688</v>
+        <v>3.105214637268797</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05674863985871019</v>
+        <v>0.05674863985871012</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3795399893380603</v>
+        <v>0.3795399893380599</v>
       </c>
       <c r="H3" t="n">
-        <v>3.665557265449162</v>
+        <v>3.665557265449158</v>
       </c>
       <c r="I3" t="n">
-        <v>13.06749524694638</v>
+        <v>13.06749524694636</v>
       </c>
       <c r="J3" t="n">
-        <v>35.85820574706649</v>
+        <v>35.85820574706644</v>
       </c>
       <c r="K3" t="n">
-        <v>59.53538084632637</v>
+        <v>61.28738503271645</v>
       </c>
       <c r="L3" t="n">
-        <v>82.40845250956437</v>
+        <v>82.40845250956428</v>
       </c>
       <c r="M3" t="n">
-        <v>88.83111688875641</v>
+        <v>88.83111688875624</v>
       </c>
       <c r="N3" t="n">
-        <v>84.46022654408898</v>
+        <v>84.46022654408881</v>
       </c>
       <c r="O3" t="n">
-        <v>89.01831215033897</v>
+        <v>69.05045149394343</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>72.475491472809</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.44794670918819</v>
+        <v>48.44794670918814</v>
       </c>
       <c r="R3" t="n">
-        <v>23.56477232048063</v>
+        <v>23.5647723204806</v>
       </c>
       <c r="S3" t="n">
-        <v>7.049788837046862</v>
+        <v>7.049788837046854</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52981250088455</v>
+        <v>1.529812500884548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02496973614066187</v>
+        <v>0.02496973614066185</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.318193577486467</v>
+        <v>0.3181935774864666</v>
       </c>
       <c r="H4" t="n">
-        <v>2.829030170743318</v>
+        <v>2.829030170743314</v>
       </c>
       <c r="I4" t="n">
-        <v>9.568948675683936</v>
+        <v>9.568948675683925</v>
       </c>
       <c r="J4" t="n">
-        <v>22.49628592829322</v>
+        <v>22.49628592829319</v>
       </c>
       <c r="K4" t="n">
-        <v>36.96830836615497</v>
+        <v>36.96830836615493</v>
       </c>
       <c r="L4" t="n">
-        <v>47.30670696557893</v>
+        <v>47.30670696557887</v>
       </c>
       <c r="M4" t="n">
-        <v>49.87828960544681</v>
+        <v>49.87828960544675</v>
       </c>
       <c r="N4" t="n">
-        <v>48.6922953620882</v>
+        <v>48.69229536208815</v>
       </c>
       <c r="O4" t="n">
-        <v>44.97521584326901</v>
+        <v>44.97521584326896</v>
       </c>
       <c r="P4" t="n">
-        <v>38.48406686254504</v>
+        <v>38.484066862545</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.64437311116225</v>
+        <v>26.64437311116222</v>
       </c>
       <c r="R4" t="n">
-        <v>14.30714031134605</v>
+        <v>14.30714031134603</v>
       </c>
       <c r="S4" t="n">
-        <v>5.545246254923245</v>
+        <v>5.545246254923239</v>
       </c>
       <c r="T4" t="n">
-        <v>1.359554376533086</v>
+        <v>1.359554376533084</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01735601331744367</v>
+        <v>0.01735601331744365</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H11" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I11" t="n">
-        <v>53.58647461229577</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J11" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K11" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L11" t="n">
         <v>219.3462834415373</v>
       </c>
       <c r="M11" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N11" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O11" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P11" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q11" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472342</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S11" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T11" t="n">
-        <v>6.08455463628363</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U11" t="n">
         <v>0.1111968865568681</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510354</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H12" t="n">
-        <v>7.182525544729738</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I12" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J12" t="n">
-        <v>70.26284412308051</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K12" t="n">
         <v>120.0903919074999</v>
       </c>
       <c r="L12" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M12" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N12" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P12" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.93198158665498</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R12" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S12" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T12" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6234886902484233</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H13" t="n">
-        <v>5.543381264208713</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I13" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J13" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K13" t="n">
-        <v>72.43804964886226</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L13" t="n">
-        <v>92.69576400293379</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M13" t="n">
-        <v>97.73468623594147</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N13" t="n">
-        <v>95.41077384501561</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711354</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P13" t="n">
-        <v>75.40812304604565</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.20867568980207</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R13" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S13" t="n">
         <v>10.86570744732934</v>
@@ -31952,7 +31952,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0340084740135504</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H14" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I14" t="n">
-        <v>53.58647461229577</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J14" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K14" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L14" t="n">
         <v>219.3462834415373</v>
       </c>
       <c r="M14" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N14" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P14" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q14" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472342</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S14" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T14" t="n">
-        <v>6.08455463628363</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U14" t="n">
         <v>0.1111968865568681</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510354</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H15" t="n">
-        <v>7.182525544729738</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I15" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J15" t="n">
-        <v>70.26284412308051</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K15" t="n">
         <v>120.0903919074999</v>
       </c>
       <c r="L15" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M15" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O15" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P15" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.93198158665498</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R15" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S15" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T15" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6234886902484233</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H16" t="n">
-        <v>5.543381264208713</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I16" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J16" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K16" t="n">
-        <v>72.43804964886226</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L16" t="n">
-        <v>92.69576400293379</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594147</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N16" t="n">
-        <v>95.41077384501561</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711354</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P16" t="n">
-        <v>75.40812304604565</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980207</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R16" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S16" t="n">
         <v>10.86570744732934</v>
@@ -32189,7 +32189,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0340084740135504</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H17" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I17" t="n">
-        <v>53.58647461229577</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J17" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K17" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L17" t="n">
         <v>219.3462834415373</v>
       </c>
       <c r="M17" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N17" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O17" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P17" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q17" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472342</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S17" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T17" t="n">
-        <v>6.08455463628363</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U17" t="n">
         <v>0.1111968865568681</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7436947430510354</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H18" t="n">
-        <v>7.182525544729738</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I18" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J18" t="n">
-        <v>70.26284412308051</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K18" t="n">
         <v>120.0903919074999</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M18" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N18" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O18" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P18" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.93198158665498</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R18" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S18" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T18" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6234886902484233</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H19" t="n">
-        <v>5.543381264208713</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I19" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J19" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K19" t="n">
-        <v>72.43804964886226</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L19" t="n">
-        <v>92.69576400293379</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M19" t="n">
-        <v>97.73468623594147</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N19" t="n">
-        <v>95.41077384501561</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O19" t="n">
-        <v>88.12729232711354</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P19" t="n">
-        <v>75.40812304604565</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.20867568980207</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R19" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S19" t="n">
         <v>10.86570744732934</v>
@@ -32426,7 +32426,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0340084740135504</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.389961081960852</v>
+        <v>1.389961081960851</v>
       </c>
       <c r="H20" t="n">
-        <v>14.23493893063158</v>
+        <v>14.23493893063157</v>
       </c>
       <c r="I20" t="n">
-        <v>53.58647461229579</v>
+        <v>53.58647461229577</v>
       </c>
       <c r="J20" t="n">
         <v>117.9712093800749</v>
@@ -32481,28 +32481,28 @@
         <v>219.3462834415373</v>
       </c>
       <c r="M20" t="n">
-        <v>244.0650038328586</v>
+        <v>244.0650038328585</v>
       </c>
       <c r="N20" t="n">
-        <v>248.0142307569799</v>
+        <v>248.0142307569798</v>
       </c>
       <c r="O20" t="n">
         <v>234.1928052482316</v>
       </c>
       <c r="P20" t="n">
-        <v>199.8781410373231</v>
+        <v>199.878141037323</v>
       </c>
       <c r="Q20" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472343</v>
+        <v>87.31214281472342</v>
       </c>
       <c r="S20" t="n">
         <v>31.67373815518294</v>
       </c>
       <c r="T20" t="n">
-        <v>6.084554636283631</v>
+        <v>6.08455463628363</v>
       </c>
       <c r="U20" t="n">
         <v>0.1111968865568681</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7436947430510356</v>
+        <v>0.7436947430510354</v>
       </c>
       <c r="H21" t="n">
-        <v>7.182525544729739</v>
+        <v>7.182525544729738</v>
       </c>
       <c r="I21" t="n">
-        <v>25.60527953048522</v>
+        <v>25.60527953048521</v>
       </c>
       <c r="J21" t="n">
-        <v>70.26284412308053</v>
+        <v>70.26284412308051</v>
       </c>
       <c r="K21" t="n">
         <v>120.0903919074999</v>
@@ -32563,19 +32563,19 @@
         <v>188.4352864300803</v>
       </c>
       <c r="N21" t="n">
-        <v>193.4226077551902</v>
+        <v>193.4226077551901</v>
       </c>
       <c r="O21" t="n">
-        <v>176.9438979223225</v>
+        <v>176.9438979223224</v>
       </c>
       <c r="P21" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.931981586655</v>
+        <v>94.93198158665498</v>
       </c>
       <c r="R21" t="n">
-        <v>46.17431045013361</v>
+        <v>46.1743104501336</v>
       </c>
       <c r="S21" t="n">
         <v>13.81380367026813</v>
@@ -32584,7 +32584,7 @@
         <v>2.997611705543427</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04892728572704183</v>
+        <v>0.04892728572704182</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234886902484235</v>
+        <v>0.6234886902484233</v>
       </c>
       <c r="H22" t="n">
-        <v>5.543381264208714</v>
+        <v>5.543381264208713</v>
       </c>
       <c r="I22" t="n">
         <v>18.75000533947077</v>
@@ -32633,25 +32633,25 @@
         <v>44.08065040056353</v>
       </c>
       <c r="K22" t="n">
-        <v>72.43804964886228</v>
+        <v>72.43804964886226</v>
       </c>
       <c r="L22" t="n">
-        <v>92.6957640029338</v>
+        <v>92.69576400293379</v>
       </c>
       <c r="M22" t="n">
-        <v>97.73468623594148</v>
+        <v>97.73468623594147</v>
       </c>
       <c r="N22" t="n">
-        <v>95.41077384501563</v>
+        <v>95.41077384501561</v>
       </c>
       <c r="O22" t="n">
-        <v>88.12729232711355</v>
+        <v>88.12729232711354</v>
       </c>
       <c r="P22" t="n">
-        <v>75.40812304604566</v>
+        <v>75.40812304604565</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20867568980208</v>
+        <v>52.20867568980207</v>
       </c>
       <c r="R22" t="n">
         <v>28.03431874517001</v>
@@ -32663,7 +32663,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03400847401355041</v>
+        <v>0.0340084740135504</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>389.3648352170803</v>
       </c>
       <c r="N41" t="n">
-        <v>395.6651653192952</v>
+        <v>395.6651653192957</v>
       </c>
       <c r="O41" t="n">
         <v>373.615395867857</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.096607794625541</v>
+        <v>1.096607794625442</v>
       </c>
       <c r="L2" t="n">
-        <v>16.45661424344789</v>
+        <v>16.45661424344777</v>
       </c>
       <c r="M2" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="N2" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="O2" t="n">
-        <v>26.3290667991452</v>
+        <v>26.32906679914505</v>
       </c>
       <c r="P2" t="n">
-        <v>8.357203562645296</v>
+        <v>8.357203562645182</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.709598061710975</v>
+        <v>5.461602248101059</v>
       </c>
       <c r="L3" t="n">
-        <v>26.29392869871532</v>
+        <v>26.29392869871523</v>
       </c>
       <c r="M3" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="N3" t="n">
-        <v>31.26683315033898</v>
+        <v>31.26683315033883</v>
       </c>
       <c r="O3" t="n">
-        <v>31.26683315033898</v>
+        <v>11.29897249394343</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>18.21585647000525</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676698</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626068</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L11" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M11" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N11" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O11" t="n">
         <v>141.0030296224485</v>
@@ -35430,7 +35430,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.8936053230805</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K12" t="n">
-        <v>64.26460912288448</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L12" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M12" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N12" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945932</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181626</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.18768008979544</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L13" t="n">
-        <v>38.06747010903228</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M13" t="n">
-        <v>41.46974373716142</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N13" t="n">
-        <v>43.69812833659617</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O13" t="n">
-        <v>32.05239425411721</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62828140614086</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676698</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626068</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L14" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M14" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N14" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O14" t="n">
         <v>141.0030296224485</v>
@@ -35667,7 +35667,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.8936053230805</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288448</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L15" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M15" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N15" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945932</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181626</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.18768008979544</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L16" t="n">
-        <v>38.06747010903228</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M16" t="n">
-        <v>41.46974373716142</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N16" t="n">
-        <v>43.69812833659617</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O16" t="n">
-        <v>32.05239425411721</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62828140614086</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.64761804676698</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K17" t="n">
-        <v>87.67187230626068</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L17" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M17" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N17" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O17" t="n">
         <v>141.0030296224485</v>
@@ -35904,7 +35904,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.8936053230805</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K18" t="n">
-        <v>64.26460912288448</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L18" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M18" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N18" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P18" t="n">
-        <v>87.75344272945932</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.23936308181626</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.18768008979544</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L19" t="n">
-        <v>38.06747010903228</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M19" t="n">
-        <v>41.46974373716142</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N19" t="n">
-        <v>43.69812833659617</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O19" t="n">
-        <v>32.05239425411721</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62828140614086</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.64761804676699</v>
+        <v>44.64761804676698</v>
       </c>
       <c r="K20" t="n">
-        <v>87.67187230626071</v>
+        <v>87.67187230626068</v>
       </c>
       <c r="L20" t="n">
-        <v>123.8608853786925</v>
+        <v>123.8608853786924</v>
       </c>
       <c r="M20" t="n">
         <v>150.7747793758131</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.89360532308051</v>
+        <v>18.8936053230805</v>
       </c>
       <c r="K21" t="n">
-        <v>64.26460912288451</v>
+        <v>64.26460912288448</v>
       </c>
       <c r="L21" t="n">
-        <v>105.3618281836313</v>
+        <v>105.3618281836312</v>
       </c>
       <c r="M21" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N21" t="n">
-        <v>140.2292143614402</v>
+        <v>140.2292143614401</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1924189223225</v>
+        <v>119.1924189223224</v>
       </c>
       <c r="P21" t="n">
-        <v>87.75344272945935</v>
+        <v>87.75344272945932</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.23936308181628</v>
+        <v>38.23936308181626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.18768008979545</v>
+        <v>20.18768008979544</v>
       </c>
       <c r="L22" t="n">
-        <v>38.06747010903229</v>
+        <v>38.06747010903228</v>
       </c>
       <c r="M22" t="n">
-        <v>41.46974373716144</v>
+        <v>41.46974373716142</v>
       </c>
       <c r="N22" t="n">
-        <v>43.69812833659618</v>
+        <v>43.69812833659617</v>
       </c>
       <c r="O22" t="n">
-        <v>32.05239425411722</v>
+        <v>32.05239425411721</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62828140614088</v>
+        <v>19.62828140614086</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>296.0746107600349</v>
       </c>
       <c r="N41" t="n">
-        <v>302.7528745626759</v>
+        <v>302.7528745626764</v>
       </c>
       <c r="O41" t="n">
         <v>280.4256202420739</v>
